--- a/tables/rs_glossary.xlsx
+++ b/tables/rs_glossary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UCL\CASA0023 RS\casa0023_remote_sensing\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UCL\CASA0023 RS\casa0023-remote-sensing\remote_sensing\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA206A3C-D2C1-46EE-98AF-66E39D42D30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118615E4-53E6-4E60-925D-6A055A66E90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{80488FCB-2070-4FAF-ADE4-485D3129572B}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{80488FCB-2070-4FAF-ADE4-485D3129572B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,13 +291,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -636,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4BB455-CC82-43E0-83BF-01A2C7ABC91B}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +823,7 @@
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
     </row>

--- a/tables/rs_glossary.xlsx
+++ b/tables/rs_glossary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UCL\CASA0023 RS\casa0023-remote-sensing\remote_sensing\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118615E4-53E6-4E60-925D-6A055A66E90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454DE242-E661-4F98-8DE3-7003A804BBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{80488FCB-2070-4FAF-ADE4-485D3129572B}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{80488FCB-2070-4FAF-ADE4-485D3129572B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Term</t>
   </si>
@@ -44,18 +44,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>RBV sensor</t>
-  </si>
-  <si>
-    <t>MSS sensor</t>
-  </si>
-  <si>
-    <t>Push broom</t>
-  </si>
-  <si>
-    <t>Whisk broom</t>
-  </si>
-  <si>
     <t>Scan Line Corrector</t>
   </si>
   <si>
@@ -113,9 +101,6 @@
     <t>Irradiance</t>
   </si>
   <si>
-    <t>Mosiacking</t>
-  </si>
-  <si>
     <t>Contrast Enhancement</t>
   </si>
   <si>
@@ -144,12 +129,6 @@
   </si>
   <si>
     <t>Data fusion</t>
-  </si>
-  <si>
-    <t>A type of sensor that uses linear arrays to capture imagery as the platform moves forward, capturing a swath in one go.</t>
-  </si>
-  <si>
-    <t>A sensor that uses a mirror to scan the ground cross-track while capturing data one pixel at a time.</t>
   </si>
   <si>
     <t xml:space="preserve">Mathematical models used to simulate the interaction of light with the atmosphere.
@@ -184,27 +163,12 @@
     <t>An image processing technique that simulates 3D surface relief.</t>
   </si>
   <si>
-    <t>The spatial variation in pixel values, representing surface roughness or pattern.</t>
-  </si>
-  <si>
-    <t>Return Beam Vidicon - A camera-based sensor used on early Landsat missions for capturing panchromatic images.</t>
-  </si>
-  <si>
-    <t>Multispectral Scanner - The sensor onboard early Landsat satellites that captured data in several broad spectral bands.</t>
-  </si>
-  <si>
     <t>The process of correcting spatial distortions in remote sensing imagery to align with map coordinates.  This is a similar process to that of paper maps being digitised and corrected to align with digitial representation of the Earth.  It involves the use of ground control points identified on the captured image and a "gold standard" image, then using transformation algorithms to align the image.</t>
   </si>
   <si>
     <t>A technique used to enhance the spatial resolution of multispectral images by combining them with a high resolution panchromatic image.</t>
   </si>
   <si>
-    <t>The process of combining multiple images into a single and seamless image.</t>
-  </si>
-  <si>
-    <t>A statistical technique used to transform multi-spectral data by reducing the dimensions of the data whilst retaining the key information.</t>
-  </si>
-  <si>
     <t>Device that compensates for motion distortions in satellite imagery caused by satellite movement.</t>
   </si>
   <si>
@@ -223,15 +187,9 @@
     <t>The angle of the sun, measured clockwise from the north. North = 0°, East = 90° at sunrise and 270° at sunset</t>
   </si>
   <si>
-    <t>The raw output value (with no units) recorded by a sensor, wuth each number indicating a range of colours, e.g. an 8 bit image has value 0 (black) to 255 (white).  These represent the radiance or reflectance.</t>
-  </si>
-  <si>
     <t>The process of converting the captured Digital Number to a radiance or reflectance values.</t>
   </si>
   <si>
-    <t>The fraction of incoming light that a surface reflects, corrected to account for atmospheric effects and light source.</t>
-  </si>
-  <si>
     <t>Radiation that is reaching the Earth such as from the Sun</t>
   </si>
   <si>
@@ -241,29 +199,33 @@
     <t xml:space="preserve">The process of combining data from multiple sources with the goal of improving accuracy and usefulness. </t>
   </si>
   <si>
-    <t>A subset of data fusion that focuses on merging images to improve resoluton.  This can be used to combine certain Landsat and Sentinel images into a single working image.</t>
-  </si>
-  <si>
-    <t>A technique for atmospheric correction that finds the values of the darkest values and then subtracts the that from each pixel. Could also be termed hostogram adjustment.</t>
-  </si>
-  <si>
     <t>Features assumed to have stable reflectance over time. Examples include water bodies, rocky surfaces. Can be used for atmospheric correction, sensor callibration and change detection</t>
+  </si>
+  <si>
+    <t>A technique for atmospheric correction that finds the values of the darkest values and then subtracts the that from each pixel. The simplest and mot widely used atmospheric correction technique.</t>
+  </si>
+  <si>
+    <t>The raw output value (with no units) recorded by a sensor, with each number indicating a range of colours, e.g. an 8 bit image has value 0 (black) to 255 (white).  These represent the radiance or reflectance.</t>
+  </si>
+  <si>
+    <t>The ratio of incoming electromagnetic energy that a surface reflects, corrected to account for atmospheric effects and light source.</t>
+  </si>
+  <si>
+    <t>A subset of data fusion that focuses on merging images to improve resoluton. This technique migtigates for the differences in spatial, temporaral and spectral resolutions in data collection between satelittes. So this can be used to combine certain Landsat and Sentinel images into a single working image (Wen, 2024).</t>
+  </si>
+  <si>
+    <t>A technique to take a large complex dataset  and reduce it's dimensionality to provide a simplified dataset whilst maintaining the significant patterns and trends. (Jaadi, 2024)</t>
+  </si>
+  <si>
+    <t>The spatial variation/similarity of visual patterns in pixel values, representing surface roughness or smoothness. (Irons, 1981)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -293,8 +255,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,299 +593,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4BB455-CC82-43E0-83BF-01A2C7ABC91B}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="93.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="93.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>56</v>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>39</v>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>40</v>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>63</v>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>64</v>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>53</v>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>43</v>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>44</v>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>45</v>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>46</v>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B30" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>